--- a/Data/EC/NIT-9001496931.xlsx
+++ b/Data/EC/NIT-9001496931.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{509EBD6E-01B1-4EB9-A7FB-EB3D2949A2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D389E58A-274B-4303-A57C-B047EC6A7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E41FE2D0-F550-4603-821E-42CAB902DCB4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DEB6999-3D04-459D-B5DE-AEE4DC4DC735}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="87">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,202 +71,199 @@
     <t>RAFAEL ALFONSO BARRIOS MARTINEZ</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1047479682</t>
+  </si>
+  <si>
+    <t>BRAYAN NUÑEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>1003934985</t>
+  </si>
+  <si>
+    <t>ELIS MERCEDES ORTIZ POTES</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1070617860</t>
+  </si>
+  <si>
+    <t>EDWIN ANDRES BENITEZ ESPARZA</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1007698479</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO CAMAÑO LUNA</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1007820183</t>
+  </si>
+  <si>
+    <t>TATIANA ROCIO LOPEZ AVENDAÑO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1047479682</t>
-  </si>
-  <si>
-    <t>BRAYAN NUÑEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>1003934985</t>
-  </si>
-  <si>
-    <t>ELIS MERCEDES ORTIZ POTES</t>
-  </si>
-  <si>
-    <t>1070617860</t>
-  </si>
-  <si>
-    <t>EDWIN ANDRES BENITEZ ESPARZA</t>
-  </si>
-  <si>
-    <t>1007698479</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO CAMAÑO LUNA</t>
-  </si>
-  <si>
-    <t>1007820183</t>
-  </si>
-  <si>
-    <t>TATIANA ROCIO LOPEZ AVENDAÑO</t>
-  </si>
-  <si>
-    <t>1124038514</t>
-  </si>
-  <si>
-    <t>KARINA BANQUEZ JULIO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +362,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +377,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +577,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +621,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +677,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9141A7FB-79A5-574F-6581-F427B16D6968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AE08AB-BBEC-9A9C-B06A-9996441047A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,8 +1028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8FBB72-BC6A-4A47-BF34-408FCFB72E87}">
-  <dimension ref="B2:J155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33059FCF-D3C9-479B-BD35-849C2261CBBD}">
+  <dimension ref="B2:J148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1056,7 +1053,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1098,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1130,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5326728</v>
+        <v>4963160</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1146,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1729,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>35112</v>
+        <v>20000</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1752,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1798,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1844,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1890,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1919,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1936,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1982,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2028,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2074,19 +2071,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2120,19 +2117,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2149,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2166,19 +2163,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2189,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F59" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2235,19 +2232,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2258,19 +2255,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F62" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2281,19 +2278,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G63" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2310,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2327,19 +2324,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F65" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2350,19 +2347,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2373,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F67" s="18">
-        <v>35112</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2402,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2419,19 +2416,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F69" s="18">
-        <v>35112</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2442,19 +2439,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F70" s="18">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2465,19 +2462,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2488,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2511,13 +2508,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2534,19 +2531,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2557,19 +2554,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2580,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2603,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2626,19 +2623,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2649,19 +2646,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2672,19 +2669,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2695,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2718,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2741,19 +2738,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2764,19 +2761,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2787,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2810,19 +2807,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F86" s="18">
         <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2833,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2856,19 +2853,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2879,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -2902,19 +2899,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2925,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2948,19 +2945,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2971,13 +2968,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -2994,19 +2991,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
       </c>
       <c r="G94" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3017,19 +3014,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3040,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3063,13 +3060,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -3086,19 +3083,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3109,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3132,19 +3129,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G100" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3155,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3178,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3201,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3224,19 +3221,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3247,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3270,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3293,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3316,19 +3313,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3339,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3362,19 +3359,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F110" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G110" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3385,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3408,19 +3405,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3431,19 +3428,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F113" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G113" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3454,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F114" s="18">
-        <v>40000</v>
+        <v>35112</v>
       </c>
       <c r="G114" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3477,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3500,13 +3497,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F116" s="18">
         <v>46400</v>
@@ -3523,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F117" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G117" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3546,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F118" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3569,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F119" s="18">
         <v>46400</v>
@@ -3592,19 +3589,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3615,19 +3612,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F121" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3638,13 +3635,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F122" s="18">
         <v>46400</v>
@@ -3661,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F123" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3684,19 +3681,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F124" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3707,13 +3704,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F125" s="18">
         <v>46400</v>
@@ -3730,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3753,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F127" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3776,13 +3773,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F128" s="18">
         <v>46400</v>
@@ -3799,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D129" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="E129" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F129" s="18">
         <v>46400</v>
       </c>
       <c r="G129" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3822,19 +3819,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E130" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F130" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G130" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3845,19 +3842,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D131" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E131" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F131" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G131" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3868,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D132" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F132" s="18">
         <v>46400</v>
@@ -3891,19 +3888,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="E133" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F133" s="18">
         <v>46400</v>
       </c>
       <c r="G133" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3914,19 +3911,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F134" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G134" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3937,19 +3934,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F135" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3960,13 +3957,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F136" s="18">
         <v>46400</v>
@@ -3983,19 +3980,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F137" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G137" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4006,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D138" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E138" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F138" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4029,13 +4026,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D139" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F139" s="18">
         <v>46400</v>
@@ -4052,19 +4049,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F140" s="18">
-        <v>46400</v>
+        <v>35112</v>
       </c>
       <c r="G140" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4075,236 +4072,75 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F141" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="18">
+      <c r="B142" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" s="24">
         <v>46400</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="24">
         <v>1160000</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F146" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="26"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F147" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="B147" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="H147" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G149" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="32" t="s">
+      <c r="B148" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="32"/>
+      <c r="H148" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C154" s="32"/>
-      <c r="H154" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" s="32"/>
-      <c r="H155" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="H155:J155"/>
-    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="H147:J147"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
